--- a/Investment_Details_2024.xlsx
+++ b/Investment_Details_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/071313f90715867b/Investments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f2rr7vs\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6137A420-9CF0-4BB7-A581-974FD2D6017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06050A28-CB19-4807-A8A6-3DD493EEB0C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AC654B-D3EA-4210-989F-5EB8AEFEF898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{56009D22-9A51-47F8-893B-CAB08B375F9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10080" xr2:uid="{56009D22-9A51-47F8-893B-CAB08B375F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,34 @@
     <sheet name="MF" sheetId="2" r:id="rId3"/>
     <sheet name="MF Pivot" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
-    <pivotCache cacheId="12" r:id="rId6"/>
-    <pivotCache cacheId="17" r:id="rId7"/>
-    <pivotCache cacheId="22" r:id="rId8"/>
+    <pivotCache cacheId="186" r:id="rId5"/>
+    <pivotCache cacheId="191" r:id="rId6"/>
+    <pivotCache cacheId="196" r:id="rId7"/>
+    <pivotCache cacheId="201" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>S.No</t>
   </si>
@@ -161,6 +172,15 @@
   <si>
     <t>NIFTY NEXT 50 INDEX FUND</t>
   </si>
+  <si>
+    <t>FEDERAL BANK</t>
+  </si>
+  <si>
+    <t>INFOSYS</t>
+  </si>
+  <si>
+    <t>MANAPPURAM FINANCE</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,22 +252,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -255,8 +264,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -280,6 +287,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,13 +306,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dharnaisankar M" refreshedDate="45415.521622222223" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{70281A73-5023-4BA1-8D70-B6079EEBA3AC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Muthusamy, Dharanisankar" refreshedDate="45419.968469560183" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="78" xr:uid="{70281A73-5023-4BA1-8D70-B6079EEBA3AC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B2:C100" sheet="Stocks"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Stock Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="11">
         <s v="IDFC LIMITED "/>
         <s v="ITC LIMITED"/>
         <s v="NATCO PHARMA LTD."/>
@@ -312,6 +320,9 @@
         <s v="THE SOUTH INDIAN BAN "/>
         <s v="NIPPON IND ETF GOLD (GOLDBEES)"/>
         <s v="THE KARNATAKA BANK"/>
+        <s v="FEDERAL BANK"/>
+        <s v="INFOSYS"/>
+        <s v="MANAPPURAM FINANCE"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -328,61 +339,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dharnaisankar M" refreshedDate="45415.521622453707" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{3E9F73E4-6547-4400-B2DB-1A51B6FD8E49}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:H880" sheet="Stocks"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="S.No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
-    </cacheField>
-    <cacheField name="Stock Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="IDFC LIMITED "/>
-        <s v="ITC LIMITED"/>
-        <s v="NATCO PHARMA LTD."/>
-        <s v="TATA STEEL LTD "/>
-        <s v="THE SOUTH INDIAN BAN "/>
-        <s v="NIPPON IND ETF GOLD (GOLDBEES)"/>
-        <s v="THE KARNATAKA BANK"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Quantity" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
-    </cacheField>
-    <cacheField name="Share Buy Value" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="28.45" maxValue="1016.9"/>
-    </cacheField>
-    <cacheField name="Brokerage" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5.08"/>
-    </cacheField>
-    <cacheField name="Buy Value" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1021.98"/>
-    </cacheField>
-    <cacheField name="Amount Spend Excluding (STT, GST)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="2632.08"/>
-    </cacheField>
-    <cacheField name="Date of Purchase" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-04-29T00:00:00" maxDate="2024-05-03T00:00:00" count="5">
-        <d v="2024-04-29T00:00:00"/>
-        <d v="2024-04-30T00:00:00"/>
-        <d v="2024-05-02T00:00:00"/>
-        <m/>
-        <d v="2024-05-01T00:00:00" u="1"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dharnaisankar M" refreshedDate="45415.521622916669" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="13" xr:uid="{BF56AC6E-1035-43B4-939B-EF33B53F7990}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Muthusamy, Dharanisankar" refreshedDate="45419.968469675929" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="13" xr:uid="{BF56AC6E-1035-43B4-939B-EF33B53F7990}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:E100" sheet="MF"/>
   </cacheSource>
@@ -418,8 +375,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dharnaisankar M" refreshedDate="45415.521623032408" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="13" xr:uid="{E63FC804-C2D2-49E8-AB5A-913A984BA361}">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Muthusamy, Dharanisankar" refreshedDate="45419.968469675929" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="13" xr:uid="{E63FC804-C2D2-49E8-AB5A-913A984BA361}">
   <cacheSource type="worksheet">
     <worksheetSource ref="I2:M433" sheet="MF"/>
   </cacheSource>
@@ -444,10 +401,68 @@
       </sharedItems>
     </cacheField>
     <cacheField name="NAV" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="22.718699999999998" maxValue="23.115200000000002"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="22.718699999999998" maxValue="23.7973"/>
     </cacheField>
     <cacheField name="Units Allocated" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="43.259" maxValue="176.05799999999999"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="42.018999999999998" maxValue="176.05799999999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Muthusamy, Dharanisankar" refreshedDate="45419.968470138891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="78" xr:uid="{EDF0DC2B-6605-4F0A-8418-82014695CCED}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:H101" sheet="Stocks"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="S.No" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Stock Name" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="IDFC LIMITED "/>
+        <s v="ITC LIMITED"/>
+        <s v="NATCO PHARMA LTD."/>
+        <s v="TATA STEEL LTD "/>
+        <s v="THE SOUTH INDIAN BAN "/>
+        <s v="NIPPON IND ETF GOLD (GOLDBEES)"/>
+        <s v="THE KARNATAKA BANK"/>
+        <s v="FEDERAL BANK"/>
+        <s v="INFOSYS"/>
+        <s v="MANAPPURAM FINANCE"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Quantity" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Share Buy Value" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="28.45" maxValue="1417.45"/>
+    </cacheField>
+    <cacheField name="Brokerage" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.14224999999999999" maxValue="7.08725"/>
+    </cacheField>
+    <cacheField name="Buy Value" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="28.59225" maxValue="1424.5372500000001"/>
+    </cacheField>
+    <cacheField name="Amount Spend Excluding (STT, GST)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="62.209499999999998" maxValue="2632.0950000000003"/>
+    </cacheField>
+    <cacheField name="Date of Purchase" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-04-29T00:00:00" maxDate="2024-05-08T00:00:00" count="6">
+        <d v="2024-04-29T00:00:00"/>
+        <d v="2024-04-30T00:00:00"/>
+        <d v="2024-05-02T00:00:00"/>
+        <d v="2024-05-07T00:00:00"/>
+        <d v="2024-05-06T00:00:00"/>
+        <m/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -459,7 +474,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="78">
   <r>
     <x v="0"/>
     <n v="10"/>
@@ -502,288 +517,371 @@
   </r>
   <r>
     <x v="7"/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
   <r>
     <n v="1"/>
     <x v="0"/>
-    <n v="10"/>
-    <n v="119.45"/>
-    <n v="0.6"/>
-    <n v="120.05"/>
-    <n v="1200.5"/>
     <x v="0"/>
+    <n v="144.4504"/>
+    <n v="32.162999999999997"/>
   </r>
   <r>
     <n v="2"/>
     <x v="1"/>
-    <n v="2"/>
-    <n v="436.9"/>
-    <n v="2.1800000000000002"/>
-    <n v="439.08"/>
-    <n v="878.16"/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="3"/>
+    <x v="2"/>
     <x v="1"/>
-    <n v="6"/>
-    <n v="436.5"/>
-    <n v="2.1800000000000002"/>
-    <n v="438.68"/>
-    <n v="2632.08"/>
-    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="4"/>
     <x v="2"/>
-    <n v="1"/>
-    <n v="1016.9"/>
-    <n v="5.08"/>
-    <n v="1021.98"/>
-    <n v="1021.98"/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="5"/>
     <x v="2"/>
-    <n v="1"/>
-    <n v="1011"/>
-    <n v="5.0599999999999996"/>
-    <n v="1016.06"/>
-    <n v="1016.06"/>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="6"/>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <n v="10"/>
-    <n v="167.4"/>
-    <n v="0.84"/>
-    <n v="168.24"/>
-    <n v="1682.4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="30.95"/>
-    <n v="0.15"/>
-    <n v="31.099999999999998"/>
-    <n v="62.199999999999996"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="5"/>
-    <n v="20"/>
-    <n v="61.27"/>
-    <n v="0.31"/>
-    <n v="61.580000000000005"/>
-    <n v="1231.6000000000001"/>
+    <x v="2"/>
     <x v="1"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="6"/>
-    <n v="5"/>
-    <n v="231.8"/>
-    <n v="1.1599999999999999"/>
-    <n v="232.96"/>
-    <n v="1164.8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="2"/>
     <x v="1"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="28.45"/>
-    <n v="0"/>
-    <n v="28.45"/>
-    <n v="85.35"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
     <x v="2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -794,102 +892,6 @@
     <n v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="144.4504"/>
-    <n v="32.162999999999997"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
-  <r>
-    <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
     <n v="23.115200000000002"/>
     <n v="43.259"/>
   </r>
@@ -903,16 +905,16 @@
   <r>
     <n v="3"/>
     <x v="2"/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <n v="23.7973"/>
+    <n v="168.078"/>
   </r>
   <r>
     <n v="4"/>
     <x v="2"/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="23.7973"/>
+    <n v="42.018999999999998"/>
   </r>
   <r>
     <n v="5"/>
@@ -976,16 +978,801 @@
     <x v="2"/>
     <m/>
     <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="78">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="119.45"/>
+    <n v="0.59725000000000006"/>
+    <n v="120.04725000000001"/>
+    <n v="1200.4725000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="436.9"/>
+    <n v="2.1844999999999999"/>
+    <n v="439.08449999999999"/>
+    <n v="878.16899999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="436.5"/>
+    <n v="2.1825000000000001"/>
+    <n v="438.6825"/>
+    <n v="2632.0950000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1016.9"/>
+    <n v="5.0845000000000002"/>
+    <n v="1021.9845"/>
+    <n v="1021.9845"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1011"/>
+    <n v="5.0549999999999997"/>
+    <n v="1016.0549999999999"/>
+    <n v="1016.0549999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="167.4"/>
+    <n v="0.83700000000000008"/>
+    <n v="168.23699999999999"/>
+    <n v="1682.37"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="30.95"/>
+    <n v="0.15475"/>
+    <n v="31.104749999999999"/>
+    <n v="62.209499999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="5"/>
+    <n v="20"/>
+    <n v="61.27"/>
+    <n v="0.30635000000000001"/>
+    <n v="61.576350000000005"/>
+    <n v="1231.527"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="6"/>
+    <n v="5"/>
+    <n v="231.8"/>
+    <n v="1.159"/>
+    <n v="232.959"/>
+    <n v="1164.7950000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="28.45"/>
+    <n v="0.14224999999999999"/>
+    <n v="28.59225"/>
+    <n v="85.776749999999993"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="7"/>
+    <n v="5"/>
+    <n v="160.5"/>
+    <n v="0.80249999999999999"/>
+    <n v="161.30250000000001"/>
+    <n v="806.51250000000005"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="114.2"/>
+    <n v="0.57100000000000006"/>
+    <n v="114.771"/>
+    <n v="573.85500000000002"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="116"/>
+    <n v="0.57999999999999996"/>
+    <n v="116.58"/>
+    <n v="1165.8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1417.45"/>
+    <n v="7.08725"/>
+    <n v="1424.5372500000001"/>
+    <n v="1424.5372500000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="9"/>
+    <n v="5"/>
+    <n v="186.5"/>
+    <n v="0.9325"/>
+    <n v="187.4325"/>
+    <n v="937.16250000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1012.5"/>
+    <n v="5.0625"/>
+    <n v="1017.5625"/>
+    <n v="1017.5625"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E208BE2-68DB-4D17-BB0E-F05D7790802B}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:I11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E208BE2-68DB-4D17-BB0E-F05D7790802B}" name="PivotTable4" cacheId="186" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:I15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -993,36 +1780,60 @@
         <item x="3"/>
         <item x="6"/>
         <item x="4"/>
-        <item h="1" x="7"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -1047,12 +1858,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53273095-5362-43C2-B84E-01754FEC949E}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C52A896-77C3-4B86-8FB0-1FC099E75A23}" name="PivotTable2" cacheId="201" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="9">
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1060,7 +1871,10 @@
         <item x="3"/>
         <item x="6"/>
         <item x="4"/>
-        <item h="1" sd="0" x="7"/>
+        <item sd="0" x="10"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1070,12 +1884,13 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="4"/>
         <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
+        <item sd="0" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1084,7 +1899,7 @@
     <field x="7"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -1113,10 +1928,37 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -1162,7 +2004,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A14017D-C4E1-49CD-81A3-BF61E938E2D3}" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A14017D-C4E1-49CD-81A3-BF61E938E2D3}" name="PivotTable5" cacheId="191" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1239,8 +2081,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7988D9E-3C48-45A1-A97E-EBCF698B4B24}" name="PivotTable6" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A15:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7988D9E-3C48-45A1-A97E-EBCF698B4B24}" name="PivotTable6" cacheId="196" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A15:C25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -1268,7 +2110,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -1285,7 +2127,10 @@
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
@@ -1621,27 +2466,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DBCA76-9C11-477E-9949-9BB5702E0B71}">
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1660,10 +2505,10 @@
       <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J2" t="s">
@@ -1671,10 +2516,10 @@
       </c>
       <c r="K2">
         <f>SUM(G3:G120)</f>
-        <v>10975.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16900.884000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1688,21 +2533,22 @@
         <v>119.45</v>
       </c>
       <c r="E3" s="1">
-        <v>0.6</v>
+        <f>D3*0.005</f>
+        <v>0.59725000000000006</v>
       </c>
       <c r="F3" s="1">
         <f>D3+E3</f>
-        <v>120.05</v>
+        <v>120.04725000000001</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G10" si="0">F3*C3</f>
-        <v>1200.5</v>
+        <v>1200.4725000000001</v>
       </c>
       <c r="H3" s="5">
         <v>45411</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1716,21 +2562,22 @@
         <v>436.9</v>
       </c>
       <c r="E4" s="1">
-        <v>2.1800000000000002</v>
+        <f>D4*0.005</f>
+        <v>2.1844999999999999</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F9" si="1">D4+E4</f>
-        <v>439.08</v>
+        <v>439.08449999999999</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>878.16</v>
+        <v>878.16899999999998</v>
       </c>
       <c r="H4" s="5">
         <v>45411</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1744,21 +2591,22 @@
         <v>436.5</v>
       </c>
       <c r="E5" s="1">
-        <v>2.1800000000000002</v>
+        <f t="shared" ref="E5:E18" si="2">D5*0.005</f>
+        <v>2.1825000000000001</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>438.68</v>
+        <v>438.6825</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>2632.08</v>
+        <v>2632.0950000000003</v>
       </c>
       <c r="H5" s="5">
         <v>45411</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1772,21 +2620,22 @@
         <v>1016.9</v>
       </c>
       <c r="E6" s="1">
-        <v>5.08</v>
+        <f t="shared" si="2"/>
+        <v>5.0845000000000002</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>1021.98</v>
+        <v>1021.9845</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>1021.98</v>
+        <v>1021.9845</v>
       </c>
       <c r="H6" s="5">
         <v>45411</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1800,21 +2649,22 @@
         <v>1011</v>
       </c>
       <c r="E7" s="1">
-        <v>5.0599999999999996</v>
+        <f t="shared" si="2"/>
+        <v>5.0549999999999997</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>1016.06</v>
+        <v>1016.0549999999999</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>1016.06</v>
+        <v>1016.0549999999999</v>
       </c>
       <c r="H7" s="5">
         <v>45411</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1828,21 +2678,22 @@
         <v>167.4</v>
       </c>
       <c r="E8" s="1">
-        <v>0.84</v>
+        <f t="shared" si="2"/>
+        <v>0.83700000000000008</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>168.24</v>
+        <v>168.23699999999999</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>1682.4</v>
+        <v>1682.37</v>
       </c>
       <c r="H8" s="5">
         <v>45411</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1856,21 +2707,22 @@
         <v>30.95</v>
       </c>
       <c r="E9" s="1">
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.15475</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>31.099999999999998</v>
+        <v>31.104749999999999</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>62.199999999999996</v>
+        <v>62.209499999999998</v>
       </c>
       <c r="H9" s="5">
         <v>45411</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1884,25 +2736,26 @@
         <v>61.27</v>
       </c>
       <c r="E10" s="1">
-        <v>0.31</v>
+        <f t="shared" si="2"/>
+        <v>0.30635000000000001</v>
       </c>
       <c r="F10" s="1">
         <f>D10+E10</f>
-        <v>61.580000000000005</v>
+        <v>61.576350000000005</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>1231.6000000000001</v>
+        <v>1231.527</v>
       </c>
       <c r="H10" s="5">
         <v>45412</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
@@ -1912,25 +2765,26 @@
         <v>231.8</v>
       </c>
       <c r="E11" s="1">
-        <v>1.1599999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.159</v>
       </c>
       <c r="F11" s="1">
         <f>D11+E11</f>
-        <v>232.96</v>
+        <v>232.959</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G16" si="2">F11*C11</f>
-        <v>1164.8</v>
+        <f t="shared" ref="G11:G18" si="3">F11*C11</f>
+        <v>1164.7950000000001</v>
       </c>
       <c r="H11" s="5">
         <v>45412</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1">
@@ -1940,115 +2794,804 @@
         <v>28.45</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.14224999999999999</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:F27" si="3">D12+E12</f>
-        <v>28.45</v>
+        <f t="shared" ref="F12:F18" si="4">D12+E12</f>
+        <v>28.59225</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="2"/>
-        <v>85.35</v>
+        <f t="shared" si="3"/>
+        <v>85.776749999999993</v>
       </c>
       <c r="H12" s="5">
         <v>45414</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>160.5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80249999999999999</v>
+      </c>
       <c r="F13" s="1">
+        <f t="shared" si="4"/>
+        <v>161.30250000000001</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+        <v>806.51250000000005</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>114.2</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>0.57100000000000006</v>
+      </c>
       <c r="F14" s="1">
+        <f t="shared" si="4"/>
+        <v>114.771</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+        <v>573.85500000000002</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>116</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>0.57999999999999996</v>
+      </c>
       <c r="F15" s="1">
+        <f t="shared" si="4"/>
+        <v>116.58</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+        <v>1165.8</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1417.45</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>7.08725</v>
+      </c>
       <c r="F16" s="1">
+        <f t="shared" si="4"/>
+        <v>1424.5372500000001</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
+        <v>1424.5372500000001</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="16">
+        <v>5</v>
+      </c>
+      <c r="D17" s="16">
+        <v>186.5</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+        <v>0.9325</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
+        <v>187.4325</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="3"/>
+        <v>937.16250000000002</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1012.5</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0625</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
+        <v>1017.5625</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="3"/>
+        <v>1017.5625</v>
+      </c>
+      <c r="H18" s="5">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2057,51 +3600,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29FE634-DA7A-4E77-B330-3C82356F6B98}">
-  <dimension ref="A3:I15"/>
+  <dimension ref="A3:I24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="76" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
@@ -2119,303 +3662,506 @@
       <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>45411</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>32</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>3219.1</v>
       </c>
-      <c r="D4" s="17">
-        <v>16.09</v>
-      </c>
-      <c r="E4" s="17">
-        <v>3235.19</v>
-      </c>
-      <c r="F4" s="17">
-        <v>8493.380000000001</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="D4" s="15">
+        <v>16.095500000000001</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3235.1954999999998</v>
+      </c>
+      <c r="F4" s="15">
+        <v>8493.3555000000015</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="15">
+        <v>119.45</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.59725000000000006</v>
+      </c>
+      <c r="E5" s="15">
+        <v>120.04725000000001</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1200.4725000000001</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>873.4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4.367</v>
+      </c>
+      <c r="E6" s="15">
+        <v>877.76700000000005</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3510.2640000000001</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2027.9</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10.1395</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2038.0394999999999</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2038.0394999999999</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15">
+        <v>167.4</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="E8" s="15">
+        <v>168.23699999999999</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1682.37</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>30.95</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.15475</v>
+      </c>
+      <c r="E9" s="15">
+        <v>31.104749999999999</v>
+      </c>
+      <c r="F9" s="15">
+        <v>62.209499999999998</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>45412</v>
+      </c>
+      <c r="B10" s="15">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>293.07</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.4653499999999999</v>
+      </c>
+      <c r="E10" s="15">
+        <v>294.53534999999999</v>
+      </c>
+      <c r="F10" s="15">
+        <v>2396.3220000000001</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="15">
+        <v>20</v>
+      </c>
+      <c r="C11" s="15">
+        <v>61.27</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.30635000000000001</v>
+      </c>
+      <c r="E11" s="15">
+        <v>61.576350000000005</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1231.527</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <v>231.8</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.159</v>
+      </c>
+      <c r="E12" s="15">
+        <v>232.959</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1164.7950000000001</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>45414</v>
+      </c>
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15">
+        <v>28.45</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.14224999999999999</v>
+      </c>
+      <c r="E13" s="15">
+        <v>28.59225</v>
+      </c>
+      <c r="F13" s="15">
+        <v>85.776749999999993</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15">
+        <v>28.45</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.14224999999999999</v>
+      </c>
+      <c r="E14" s="15">
+        <v>28.59225</v>
+      </c>
+      <c r="F14" s="15">
+        <v>85.776749999999993</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>45418</v>
+      </c>
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
+        <v>114.2</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.57100000000000006</v>
+      </c>
+      <c r="E15" s="15">
+        <v>114.771</v>
+      </c>
+      <c r="F15" s="15">
+        <v>573.85500000000002</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
+        <v>114.2</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.57100000000000006</v>
+      </c>
+      <c r="E16" s="15">
+        <v>114.771</v>
+      </c>
+      <c r="F16" s="15">
+        <v>573.85500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>45419</v>
+      </c>
+      <c r="B17" s="15">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2892.95</v>
+      </c>
+      <c r="D17" s="15">
+        <v>14.46475</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2907.4147499999999</v>
+      </c>
+      <c r="F17" s="15">
+        <v>5351.5747500000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="15">
         <v>10</v>
       </c>
-      <c r="C5" s="17">
-        <v>119.45</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="17">
-        <v>120.05</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1200.5</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="17">
-        <v>8</v>
-      </c>
-      <c r="C6" s="17">
-        <v>873.4</v>
-      </c>
-      <c r="D6" s="17">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="E6" s="17">
-        <v>877.76</v>
-      </c>
-      <c r="F6" s="17">
-        <v>3510.24</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="C18" s="15">
+        <v>116</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E18" s="15">
+        <v>116.58</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1165.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="17">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17">
-        <v>2027.9</v>
-      </c>
-      <c r="D7" s="17">
-        <v>10.14</v>
-      </c>
-      <c r="E7" s="17">
-        <v>2038.04</v>
-      </c>
-      <c r="F7" s="17">
-        <v>2038.04</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17">
-        <v>10</v>
-      </c>
-      <c r="C8" s="17">
-        <v>167.4</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="E8" s="17">
-        <v>168.24</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1682.4</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="17">
-        <v>2</v>
-      </c>
-      <c r="C9" s="17">
-        <v>30.95</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="E9" s="17">
-        <v>31.099999999999998</v>
-      </c>
-      <c r="F9" s="17">
-        <v>62.199999999999996</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1012.5</v>
+      </c>
+      <c r="D19" s="15">
+        <v>5.0625</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1017.5625</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1017.5625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>45412</v>
-      </c>
-      <c r="B10" s="17">
-        <v>25</v>
-      </c>
-      <c r="C10" s="17">
-        <v>293.07</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1.47</v>
-      </c>
-      <c r="E10" s="17">
-        <v>294.54000000000002</v>
-      </c>
-      <c r="F10" s="17">
-        <v>2396.4</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="17">
+      <c r="C20" s="15">
+        <v>160.5</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="E20" s="15">
+        <v>161.30250000000001</v>
+      </c>
+      <c r="F20" s="15">
+        <v>806.51250000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1417.45</v>
+      </c>
+      <c r="D21" s="15">
+        <v>7.08725</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1424.5372500000001</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1424.5372500000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="17">
-        <v>20</v>
-      </c>
-      <c r="C11" s="17">
-        <v>61.27</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.31</v>
-      </c>
-      <c r="E11" s="17">
-        <v>61.580000000000005</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1231.6000000000001</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="C22" s="15">
+        <v>186.5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.9325</v>
+      </c>
+      <c r="E22" s="15">
+        <v>187.4325</v>
+      </c>
+      <c r="F22" s="15">
+        <v>937.16250000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17">
-        <v>5</v>
-      </c>
-      <c r="C12" s="17">
-        <v>231.8</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E12" s="17">
-        <v>232.96</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1164.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>45414</v>
-      </c>
-      <c r="B13" s="17">
-        <v>3</v>
-      </c>
-      <c r="C13" s="17">
-        <v>28.45</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>28.45</v>
-      </c>
-      <c r="F13" s="17">
-        <v>85.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="17">
-        <v>3</v>
-      </c>
-      <c r="C14" s="17">
-        <v>28.45</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>28.45</v>
-      </c>
-      <c r="F14" s="17">
-        <v>85.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="17">
-        <v>60</v>
-      </c>
-      <c r="C15" s="17">
-        <v>3540.62</v>
-      </c>
-      <c r="D15" s="17">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="E15" s="17">
-        <v>3558.18</v>
-      </c>
-      <c r="F15" s="17">
-        <v>10975.130000000001</v>
+      <c r="B24" s="15">
+        <v>87</v>
+      </c>
+      <c r="C24" s="15">
+        <v>6547.7699999999995</v>
+      </c>
+      <c r="D24" s="15">
+        <v>32.738849999999999</v>
+      </c>
+      <c r="E24" s="15">
+        <v>6580.5088500000002</v>
+      </c>
+      <c r="F24" s="15">
+        <v>16900.884000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2423,41 +4169,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B805770-05A0-45A8-B15A-8AC1C676B970}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +4235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2522,7 +4268,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2548,7 +4294,7 @@
         <v>176.05799999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2562,11 +4308,17 @@
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>23.7973</v>
+      </c>
+      <c r="M5" s="3">
+        <v>168.078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2580,11 +4332,17 @@
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1">
+        <v>23.7973</v>
+      </c>
+      <c r="M6" s="3">
+        <v>42.018999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2600,7 +4358,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2616,7 +4374,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2632,7 +4390,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2648,7 +4406,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2664,7 +4422,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2680,7 +4438,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2696,7 +4454,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2723,30 +4481,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBB10E5-9850-4D39-98E2-AA8CD56768F7}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
@@ -2756,79 +4514,79 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>32.162999999999997</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>144.4504</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>32.162999999999997</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>144.4504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>32.162999999999997</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>144.4504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
@@ -2838,87 +4596,106 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>43.259</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>23.115200000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>43.259</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>23.115200000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>176.05799999999999</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>22.718699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>176.05799999999999</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>22.718699999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="B20" s="15">
+        <v>210.09700000000001</v>
+      </c>
+      <c r="C20" s="15">
+        <v>23.7973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="15">
+        <v>42.018999999999998</v>
+      </c>
+      <c r="C21" s="15">
+        <v>23.7973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="15">
+        <v>168.078</v>
+      </c>
+      <c r="C22" s="15">
+        <v>23.7973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="17">
-        <v>219.31700000000001</v>
-      </c>
-      <c r="C24" s="17">
-        <v>22.91695</v>
+      <c r="B25" s="15">
+        <v>429.41399999999999</v>
+      </c>
+      <c r="C25" s="15">
+        <v>23.357125000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2928,4 +4705,17 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="180d06e4-a44d-42a9-abe2-9bd0f71c347d" origin="userSelected"/>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF6B946-268E-4432-A0A7-82740FF54E07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>